--- a/biology/Virologie/Luteoviridae/Luteoviridae.xlsx
+++ b/biology/Virologie/Luteoviridae/Luteoviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Luteoviridae[1],[2] formaient une famille de virus créée en 1998[3] et obsolète depuis 2020. Elle regroupait des phytovirus à ARN linéaire à simple brin à polarité positive, rattachés à la classe IV de la classification Baltimore et à l'ordre des Tolivirales, royaume des Riboviria.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Luteoviridae, formaient une famille de virus créée en 1998 et obsolète depuis 2020. Elle regroupait des phytovirus à ARN linéaire à simple brin à polarité positive, rattachés à la classe IV de la classification Baltimore et à l'ordre des Tolivirales, royaume des Riboviria.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La famille des Luteoviridae comprenait les genres suivants :
-Enamovirus, réassigné à la famille des Solemoviridae[3]
-Luteovirus, réassigné à la famille des Tombusviridae[3]
-Polerovirus, réassigné à la famille des Solemoviridae[3]
+Enamovirus, réassigné à la famille des Solemoviridae
+Luteovirus, réassigné à la famille des Tombusviridae
+Polerovirus, réassigné à la famille des Solemoviridae
 Espèces non-affectées rattachées à la famille des Solemoviridae :
 Barley yellow dwarf virus GPV
 Barley yellow dwarf virus SGV
